--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3122.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3122.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.494885788979585</v>
+        <v>1.823277354240417</v>
       </c>
       <c r="B1">
-        <v>2.085821412265416</v>
+        <v>2.302476406097412</v>
       </c>
       <c r="C1">
-        <v>3.728896887162163</v>
+        <v>2.434069395065308</v>
       </c>
       <c r="D1">
-        <v>4.624541102400648</v>
+        <v>2.927975177764893</v>
       </c>
       <c r="E1">
-        <v>0.7076729315488258</v>
+        <v>2.070175170898438</v>
       </c>
     </row>
   </sheetData>
